--- a/Music.xlsx
+++ b/Music.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashu_\PycharmProjects\Baby_Cry_Detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Baby_cry_detection_with_music_player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68315023-1262-4308-82E5-7568DF016284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C6CB3-E001-419A-A58B-0E3D4D22FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{AA123160-F1EC-43A1-A5C6-1A919ED38D0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA123160-F1EC-43A1-A5C6-1A919ED38D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Song Name</t>
   </si>
@@ -33,19 +33,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Doraemon.wav</t>
-  </si>
-  <si>
-    <t>Moghli.wav</t>
-  </si>
-  <si>
-    <t>Krishna.wav</t>
-  </si>
-  <si>
-    <t>Noddy.wav</t>
-  </si>
-  <si>
-    <t>Ranjan Gavala.wav</t>
+    <t>toy_piano.wav</t>
   </si>
 </sst>
 </file>
@@ -403,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA03C4AF-822E-491F-AD4B-A8B3AC79B050}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,38 +416,6 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
         <v>5</v>
       </c>
     </row>
